--- a/input/HyperbolicCosine1.xlsx
+++ b/input/HyperbolicCosine1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>-3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.124505578126295</v>
+        <v>0.1135595300664129</v>
       </c>
       <c r="C2" t="n">
-        <v>23.70393293544592</v>
+        <v>23.50297289185996</v>
       </c>
       <c r="D2" t="n">
-        <v>2.68960094333314</v>
+        <v>4.155038833063792</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>-2.75</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05391737490184101</v>
+        <v>0.09902941060778239</v>
       </c>
       <c r="C3" t="n">
-        <v>20.99320360977737</v>
+        <v>21.16720393532285</v>
       </c>
       <c r="D3" t="n">
-        <v>3.513614672707074</v>
+        <v>1.768481895668432</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>-2.5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06371545523011372</v>
+        <v>0.09001826286255125</v>
       </c>
       <c r="C4" t="n">
-        <v>18.67373944045696</v>
+        <v>19.03567291031175</v>
       </c>
       <c r="D4" t="n">
-        <v>1.695985390575227</v>
+        <v>2.71874293979007</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>-2.25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05229826977121389</v>
+        <v>0.05441596792192775</v>
       </c>
       <c r="C5" t="n">
-        <v>17.32542565137735</v>
+        <v>17.28499308794058</v>
       </c>
       <c r="D5" t="n">
-        <v>2.30912123999205</v>
+        <v>2.610892898573612</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>-2</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09899306283136236</v>
+        <v>0.06113397869717288</v>
       </c>
       <c r="C6" t="n">
-        <v>15.45007635297848</v>
+        <v>15.38615500160805</v>
       </c>
       <c r="D6" t="n">
-        <v>2.772895028668458</v>
+        <v>3.414418444589621</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>-1.75</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1167123335139789</v>
+        <v>0.06886183286561999</v>
       </c>
       <c r="C7" t="n">
-        <v>13.99924730442787</v>
+        <v>14.16038516652054</v>
       </c>
       <c r="D7" t="n">
-        <v>2.879398209245421</v>
+        <v>2.022438686710334</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>-1.5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1115659591145863</v>
+        <v>0.1055375167108332</v>
       </c>
       <c r="C8" t="n">
-        <v>12.7938111699374</v>
+        <v>12.99880491830271</v>
       </c>
       <c r="D8" t="n">
-        <v>2.065437069734066</v>
+        <v>1.587691003843458</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>-1.25</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05955173939718432</v>
+        <v>0.1488008933408501</v>
       </c>
       <c r="C9" t="n">
-        <v>11.89559517802073</v>
+        <v>11.7582747411993</v>
       </c>
       <c r="D9" t="n">
-        <v>2.243910648684325</v>
+        <v>1.371386905885533</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>-1</v>
       </c>
       <c r="B10" t="n">
-        <v>0.131923268853001</v>
+        <v>0.07819541214071343</v>
       </c>
       <c r="C10" t="n">
-        <v>11.29161229982596</v>
+        <v>11.41689406485874</v>
       </c>
       <c r="D10" t="n">
-        <v>2.255946051516408</v>
+        <v>0.9499782475512468</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>-0.75</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1122535672158214</v>
+        <v>0.1134116065817401</v>
       </c>
       <c r="C11" t="n">
-        <v>11.1376036642602</v>
+        <v>10.82197280265174</v>
       </c>
       <c r="D11" t="n">
-        <v>1.788097017882366</v>
+        <v>1.697608884277293</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>-0.5</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1225499403274372</v>
+        <v>0.08561024543670862</v>
       </c>
       <c r="C12" t="n">
-        <v>10.54323117326791</v>
+        <v>10.46022174122045</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8646615054418021</v>
+        <v>1.39447486354302</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>-0.25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05425474005421473</v>
+        <v>0.08279300005280521</v>
       </c>
       <c r="C13" t="n">
-        <v>10.21192578614293</v>
+        <v>10.06091224797216</v>
       </c>
       <c r="D13" t="n">
-        <v>2.043327603810587</v>
+        <v>1.931539313973689</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1426809557742686</v>
+        <v>0.08239524629848075</v>
       </c>
       <c r="C14" t="n">
-        <v>10.31652033204811</v>
+        <v>9.944853883362878</v>
       </c>
       <c r="D14" t="n">
-        <v>1.026632021412543</v>
+        <v>1.565437220209845</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>0.25</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07903598636805087</v>
+        <v>0.1466720504974495</v>
       </c>
       <c r="C15" t="n">
-        <v>10.3165731371475</v>
+        <v>10.18458101118456</v>
       </c>
       <c r="D15" t="n">
-        <v>1.10327091178387</v>
+        <v>1.190869641168842</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>0.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0530114849526092</v>
+        <v>0.093572734122394</v>
       </c>
       <c r="C16" t="n">
-        <v>10.29451498605993</v>
+        <v>10.12911874647598</v>
       </c>
       <c r="D16" t="n">
-        <v>2.134111833144891</v>
+        <v>2.004496344233648</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>0.75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.104703235597631</v>
+        <v>0.1253413502608719</v>
       </c>
       <c r="C17" t="n">
-        <v>11.10685179993059</v>
+        <v>10.54633553692966</v>
       </c>
       <c r="D17" t="n">
-        <v>2.029118860191873</v>
+        <v>1.811044464076898</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1346832524760024</v>
+        <v>0.1266786517291874</v>
       </c>
       <c r="C18" t="n">
-        <v>10.78289504994853</v>
+        <v>11.66119329793762</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9715074399585797</v>
+        <v>2.473851300154092</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>1.25</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09558385777323335</v>
+        <v>0.08378901051836096</v>
       </c>
       <c r="C19" t="n">
-        <v>11.76246967785987</v>
+        <v>11.79052988873679</v>
       </c>
       <c r="D19" t="n">
-        <v>1.209773894142401</v>
+        <v>1.260288451348669</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>1.5</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1182151730535188</v>
+        <v>0.1177800909851545</v>
       </c>
       <c r="C20" t="n">
-        <v>12.92690987252896</v>
+        <v>12.81064437368205</v>
       </c>
       <c r="D20" t="n">
-        <v>2.66537027007544</v>
+        <v>2.498938115324239</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>1.75</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05918090381459294</v>
+        <v>0.05374476479581156</v>
       </c>
       <c r="C21" t="n">
-        <v>14.1938947932739</v>
+        <v>14.33065041630693</v>
       </c>
       <c r="D21" t="n">
-        <v>1.579953356894682</v>
+        <v>2.127762171888084</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07333261865264032</v>
+        <v>0.1227662959333748</v>
       </c>
       <c r="C22" t="n">
-        <v>15.60741500916981</v>
+        <v>15.18249368335831</v>
       </c>
       <c r="D22" t="n">
-        <v>2.654115762534394</v>
+        <v>2.454425031450006</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>2.25</v>
       </c>
       <c r="B23" t="n">
-        <v>0.09010472725561355</v>
+        <v>0.08771336073996769</v>
       </c>
       <c r="C23" t="n">
-        <v>17.16032761608469</v>
+        <v>17.1005940380518</v>
       </c>
       <c r="D23" t="n">
-        <v>1.632114908322831</v>
+        <v>2.101687286392169</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>2.5</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1426422537233011</v>
+        <v>0.1142337755180148</v>
       </c>
       <c r="C24" t="n">
-        <v>19.12522364294991</v>
+        <v>19.19271444767294</v>
       </c>
       <c r="D24" t="n">
-        <v>2.401003917431734</v>
+        <v>3.782055666840496</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>2.75</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1382553594023292</v>
+        <v>0.1120651362841473</v>
       </c>
       <c r="C25" t="n">
-        <v>21.12657413037698</v>
+        <v>20.86983613920938</v>
       </c>
       <c r="D25" t="n">
-        <v>3.70848607553168</v>
+        <v>3.696044956651441</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08212752856802852</v>
+        <v>0.06881765414043381</v>
       </c>
       <c r="C26" t="n">
-        <v>23.3931178356819</v>
+        <v>23.31079101695238</v>
       </c>
       <c r="D26" t="n">
-        <v>3.969405169353637</v>
+        <v>2.207582143937047</v>
       </c>
     </row>
   </sheetData>
